--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="27" activeTab="35"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -637,6 +637,27 @@
   </si>
   <si>
     <t>KlaimServis</t>
+  </si>
+  <si>
+    <t>Mr. Unknown</t>
+  </si>
+  <si>
+    <t>000005/042014/SA</t>
+  </si>
+  <si>
+    <t>000006/042014/SA</t>
+  </si>
+  <si>
+    <t>000006-SJ-KB-052014</t>
+  </si>
+  <si>
+    <t>000007-SJ-KB-062014</t>
+  </si>
+  <si>
+    <t>Unknown Destination</t>
+  </si>
+  <si>
+    <t>AB-222</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1362,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1531,6 +1552,70 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41965</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1">
+        <v>41965</v>
+      </c>
+      <c r="H7" s="1">
+        <v>41965</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41965</v>
+      </c>
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41965</v>
+      </c>
+      <c r="H8" s="1">
+        <v>41965</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1540,10 +1625,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1638,6 +1723,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1647,10 +1760,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1825,6 +1938,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C6">
+        <v>99999</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1834,10 +1976,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1884,6 +2026,22 @@
       </c>
       <c r="B5">
         <v>-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-5</v>
+      </c>
+      <c r="B7">
+        <v>-9</v>
       </c>
     </row>
   </sheetData>
@@ -1935,10 +2093,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1993,6 +2151,17 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-5</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2002,10 +2171,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2072,6 +2241,29 @@
         <v>127</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41967</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="1">
+        <v>41973</v>
+      </c>
+      <c r="H3">
+        <v>100000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2081,18 +2273,17 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2153,6 +2344,34 @@
       </c>
       <c r="D4">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41967</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41967</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -2260,10 +2479,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2322,6 +2541,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-4</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>70000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41967</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2331,10 +2570,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2659,6 +2898,82 @@
         <v>-3</v>
       </c>
       <c r="R8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>-8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="1">
+        <v>41967</v>
+      </c>
+      <c r="H9" s="1">
+        <v>41967</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>41973</v>
+      </c>
+      <c r="N9">
+        <v>-6</v>
+      </c>
+      <c r="P9">
+        <v>-5</v>
+      </c>
+      <c r="Q9">
+        <v>-4</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10">
+        <v>-9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="1">
+        <v>41967</v>
+      </c>
+      <c r="H10" s="1">
+        <v>41967</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>41973</v>
+      </c>
+      <c r="N10">
+        <v>-7</v>
+      </c>
+      <c r="P10">
+        <v>-5</v>
+      </c>
+      <c r="Q10">
+        <v>-5</v>
+      </c>
+      <c r="R10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2798,10 +3113,10 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3009,6 +3324,40 @@
         <v>-1</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-8</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-9</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
@@ -4322,8 +4671,8 @@
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="34" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -43,6 +43,10 @@
     <sheet name="penerimaanservis" sheetId="48" r:id="rId34"/>
     <sheet name="penerimaanservis_items" sheetId="49" r:id="rId35"/>
     <sheet name="pesan" sheetId="37" r:id="rId36"/>
+    <sheet name="kategorikas" sheetId="50" r:id="rId37"/>
+    <sheet name="kategorikas_listsaldokas" sheetId="51" r:id="rId38"/>
+    <sheet name="jenistransaksikas" sheetId="52" r:id="rId39"/>
+    <sheet name="transaksikas" sheetId="53" r:id="rId40"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="214">
   <si>
     <t>id</t>
   </si>
@@ -658,13 +662,49 @@
   </si>
   <si>
     <t>AB-222</t>
+  </si>
+  <si>
+    <t>jenis</t>
+  </si>
+  <si>
+    <t>sistem</t>
+  </si>
+  <si>
+    <t>Tukar Barang</t>
+  </si>
+  <si>
+    <t>Lain-Lain</t>
+  </si>
+  <si>
+    <t>KategoriKas_id</t>
+  </si>
+  <si>
+    <t>bulan</t>
+  </si>
+  <si>
+    <t>jenis_id</t>
+  </si>
+  <si>
+    <t>saldo</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>Dalam Kota</t>
+  </si>
+  <si>
+    <t>Luar Kota</t>
+  </si>
+  <si>
+    <t>kategoriKas_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -679,13 +719,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7D7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -700,13 +752,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1978,7 +2031,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4723,6 +4776,282 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41973</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41973</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41973</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41973</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41973</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41973</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
@@ -4831,6 +5160,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="34" activeTab="39"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="26" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>kategoriKas_id</t>
+  </si>
+  <si>
+    <t>bisaDijualKembali</t>
   </si>
 </sst>
 </file>
@@ -3523,10 +3526,10 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3542,9 +3545,10 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -3590,8 +3594,11 @@
       <c r="O1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -3622,8 +3629,11 @@
       <c r="M2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -3653,6 +3663,9 @@
       </c>
       <c r="M3">
         <v>-1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5167,7 +5180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="26" activeTab="27"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="29" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="216">
   <si>
     <t>id</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>bisaDijualKembali</t>
+  </si>
+  <si>
+    <t>dipakaiDiLaporan</t>
   </si>
 </sst>
 </file>
@@ -3528,7 +3531,7 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -4791,10 +4794,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4807,10 +4810,11 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4836,10 +4840,13 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4858,11 +4865,14 @@
       <c r="H2" t="s">
         <v>204</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4881,11 +4891,14 @@
       <c r="H3" t="s">
         <v>204</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4904,11 +4917,14 @@
       <c r="H4" t="s">
         <v>205</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4927,7 +4943,10 @@
       <c r="H5" t="s">
         <v>205</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>

--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="29" activeTab="36"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>nomor</t>
-  </si>
-  <si>
-    <t>tanggalItemStok</t>
   </si>
   <si>
     <t>tanggal</t>
@@ -758,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -766,6 +763,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,7 +1358,7 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1400,7 +1398,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1409,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1454,16 +1452,16 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1475,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1486,7 +1484,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1">
         <v>41748</v>
@@ -1506,7 +1504,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1">
         <v>41748</v>
@@ -1526,13 +1524,13 @@
         <v>-3</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1">
         <v>41748</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1">
         <v>41749</v>
@@ -1541,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L4">
         <v>-3</v>
@@ -1552,16 +1550,16 @@
         <v>-4</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1">
         <v>41748</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1">
         <v>41748</v>
@@ -1573,7 +1571,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L5">
         <v>-3</v>
@@ -1584,16 +1582,16 @@
         <v>-5</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1">
         <v>41748</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1">
         <v>41748</v>
@@ -1605,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6">
         <v>-3</v>
@@ -1616,16 +1614,16 @@
         <v>-6</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="1">
         <v>41965</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="1">
         <v>41965</v>
@@ -1637,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1648,16 +1646,16 @@
         <v>-7</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="1">
         <v>41965</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="1">
         <v>41965</v>
@@ -1669,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1700,7 +1698,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1709,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1848,10 +1846,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1866,16 +1864,16 @@
         <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1895,7 +1893,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -1904,7 +1902,7 @@
         <v>-1</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L2">
         <v>50</v>
@@ -1927,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3">
         <v>-2</v>
@@ -1956,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>-3</v>
@@ -1985,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -2014,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -2049,10 +2047,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2129,19 +2127,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2168,13 +2166,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>146</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2262,19 +2260,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
-      </c>
-      <c r="I1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2288,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1">
         <v>41409</v>
@@ -2297,7 +2295,7 @@
         <v>20000</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2311,7 +2309,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="1">
         <v>41973</v>
@@ -2320,7 +2318,7 @@
         <v>100000</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2489,10 +2487,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2506,10 +2504,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2523,10 +2521,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2556,25 +2554,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
         <v>58</v>
@@ -2659,16 +2657,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -2677,7 +2675,7 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -2689,39 +2687,39 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>96</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>98</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" t="s">
-        <v>101</v>
-      </c>
       <c r="R1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="1">
         <v>41748</v>
@@ -2736,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="1"/>
       <c r="R2" t="b">
@@ -2745,13 +2743,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3">
         <v>-2</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
         <v>41748</v>
@@ -2766,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3">
@@ -2778,13 +2776,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>-3</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1">
         <v>41748</v>
@@ -2799,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4" s="1">
         <v>41778</v>
@@ -2819,13 +2817,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>-4</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1">
         <v>41748</v>
@@ -2851,13 +2849,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>-5</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1">
         <v>41748</v>
@@ -2886,13 +2884,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>-6</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="1">
         <v>41748</v>
@@ -2924,13 +2922,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>-7</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1">
         <v>41748</v>
@@ -2962,13 +2960,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9">
         <v>-8</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="1">
         <v>41967</v>
@@ -3000,13 +2998,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>-9</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1">
         <v>41967</v>
@@ -3083,16 +3081,16 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
         <v>171</v>
-      </c>
-      <c r="J1" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3118,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -3129,7 +3127,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3155,13 +3153,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
         <v>169</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3192,13 +3190,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3213,7 +3211,7 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3449,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3461,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -3473,16 +3471,16 @@
         <v>58</v>
       </c>
       <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
         <v>151</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3508,7 +3506,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -3517,7 +3515,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3565,13 +3563,13 @@
         <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -3580,36 +3578,36 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3618,7 +3616,7 @@
         <v>41875</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H2" s="1">
         <v>41875</v>
@@ -3638,13 +3636,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>-2</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3653,7 +3651,7 @@
         <v>41954</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="1">
         <v>41954</v>
@@ -3827,10 +3825,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" t="s">
-        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3842,28 +3840,28 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" t="s">
         <v>155</v>
       </c>
-      <c r="M1" t="s">
-        <v>156</v>
-      </c>
       <c r="N1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
         <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -4250,7 +4248,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13">
         <v>60</v>
@@ -4290,13 +4288,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4391,13 +4389,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -4406,13 +4404,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -4423,13 +4421,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="1">
         <v>41875</v>
@@ -4449,13 +4447,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>-2</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1">
         <v>41875</v>
@@ -4475,13 +4473,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4">
         <v>-3</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1">
         <v>41954</v>
@@ -4501,13 +4499,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5">
         <v>-4</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1">
         <v>41954</v>
@@ -4527,13 +4525,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6">
         <v>-5</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1">
         <v>41954</v>
@@ -4572,10 +4570,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,10 +4637,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
         <v>58</v>
@@ -4674,10 +4672,10 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -4686,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -4718,7 +4716,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -4727,7 +4725,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4751,13 +4749,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -4766,22 +4764,22 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
         <v>164</v>
       </c>
-      <c r="I1" t="s">
-        <v>165</v>
-      </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>19</v>
@@ -4796,7 +4794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -4819,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -4828,10 +4826,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>4</v>
@@ -4840,10 +4838,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4851,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1">
         <v>41973</v>
@@ -4863,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -4877,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1">
         <v>41973</v>
@@ -4889,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -4903,7 +4901,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1">
         <v>41973</v>
@@ -4915,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -4929,7 +4927,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1">
         <v>41973</v>
@@ -4941,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -4973,19 +4971,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5018,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -5027,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -5036,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5044,7 +5042,7 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1">
         <v>41973</v>
@@ -5053,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5064,7 +5062,7 @@
         <v>-2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1">
         <v>41973</v>
@@ -5073,7 +5071,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5130,7 +5128,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5144,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5158,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5172,7 +5170,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5186,7 +5184,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -5237,7 +5235,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
@@ -5246,16 +5244,16 @@
         <v>58</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5475,7 +5473,7 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5489,13 +5487,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2">
         <v>-1</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5509,13 +5507,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>-2</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5529,13 +5527,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4">
         <v>-3</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5963,10 +5961,10 @@
         <v>31</v>
       </c>
       <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
         <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6587,393 +6585,397 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
       <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>188</v>
       </c>
-      <c r="L1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" s="3">
+      <c r="D2"/>
+      <c r="E2" s="3">
         <v>41628</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" s="3">
+      <c r="D3"/>
+      <c r="E3" s="3">
         <v>41654</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" s="3">
+      <c r="D4"/>
+      <c r="E4" s="3">
         <v>41649</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" s="3">
+      <c r="D5"/>
+      <c r="E5" s="3">
         <v>41678</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6"/>
-      <c r="D6" s="3">
+      <c r="D6"/>
+      <c r="E6" s="3">
         <v>41654</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" s="3">
+      <c r="D7"/>
+      <c r="E7" s="3">
         <v>41649</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" s="3">
+      <c r="D8"/>
+      <c r="E8" s="3">
         <v>41651</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-7</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" s="3">
+      <c r="D9"/>
+      <c r="E9" s="3">
         <v>41654</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" s="3">
+      <c r="D10"/>
+      <c r="E10" s="3">
         <v>41654</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" s="3">
+      <c r="D11"/>
+      <c r="E11" s="3">
         <v>41654</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" s="3">
+      <c r="D12"/>
+      <c r="E12" s="3">
         <v>41640</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" s="3">
+      <c r="D13"/>
+      <c r="E13" s="3">
         <v>41672</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-12</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" s="3">
+      <c r="D14"/>
+      <c r="E14" s="3">
         <v>41640</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" s="3">
+      <c r="D15"/>
+      <c r="E15" s="3">
         <v>41669</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-13</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" s="3">
+      <c r="D16"/>
+      <c r="E16" s="3">
         <v>41672</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-14</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" s="3">
+      <c r="D17"/>
+      <c r="E17" s="3">
         <v>41685</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-15</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" s="3">
+      <c r="D18"/>
+      <c r="E18" s="3">
         <v>41685</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-16</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" s="3">
-        <v>41692</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19"/>
+      <c r="E19" s="3">
+        <v>41692</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-17</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" s="3">
+      <c r="D20"/>
+      <c r="E20" s="3">
         <v>41646</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-18</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" s="1">
+      <c r="D21"/>
+      <c r="E21" s="1">
         <v>40179</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-18</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" s="1">
+      <c r="D22"/>
+      <c r="E22" s="1">
         <v>40188</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-18</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" s="1">
+      <c r="D23"/>
+      <c r="E23" s="1">
         <v>40198</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2</v>
       </c>
     </row>

--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" firstSheet="37" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -44,19 +44,18 @@
     <sheet name="penerimaanservis_items" sheetId="49" r:id="rId35"/>
     <sheet name="pesan" sheetId="37" r:id="rId36"/>
     <sheet name="kategorikas" sheetId="50" r:id="rId37"/>
-    <sheet name="kategorikas_listsaldokas" sheetId="51" r:id="rId38"/>
-    <sheet name="jenistransaksikas" sheetId="52" r:id="rId39"/>
-    <sheet name="transaksikas" sheetId="53" r:id="rId40"/>
+    <sheet name="jenistransaksikas" sheetId="52" r:id="rId38"/>
+    <sheet name="kas" sheetId="54" r:id="rId39"/>
+    <sheet name="periodekas" sheetId="55" r:id="rId40"/>
+    <sheet name="periodekas_listtransaksikas" sheetId="57" r:id="rId41"/>
+    <sheet name="periodekas_jumlahperiodik" sheetId="58" r:id="rId42"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -673,21 +672,12 @@
     <t>Lain-Lain</t>
   </si>
   <si>
-    <t>KategoriKas_id</t>
-  </si>
-  <si>
-    <t>bulan</t>
-  </si>
-  <si>
     <t>jenis_id</t>
   </si>
   <si>
     <t>saldo</t>
   </si>
   <si>
-    <t>tahun</t>
-  </si>
-  <si>
     <t>Dalam Kota</t>
   </si>
   <si>
@@ -701,6 +691,24 @@
   </si>
   <si>
     <t>dipakaiDiLaporan</t>
+  </si>
+  <si>
+    <t>listPeriodeRiwayat_id</t>
+  </si>
+  <si>
+    <t>PeriodeKas_id</t>
+  </si>
+  <si>
+    <t>listTransaksiKas_ORDER</t>
+  </si>
+  <si>
+    <t>Kas Kecil</t>
+  </si>
+  <si>
+    <t>Pendapatan Tukar</t>
+  </si>
+  <si>
+    <t>jenisTransaksiKas_id</t>
   </si>
 </sst>
 </file>
@@ -3596,7 +3604,7 @@
         <v>97</v>
       </c>
       <c r="P1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -4838,7 +4846,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>202</v>
@@ -4955,43 +4963,6 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -5051,7 +5022,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5071,10 +5042,110 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H3">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41985</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41985</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5202,17 +5273,18 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -5220,13 +5292,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>156</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>17</v>
@@ -5235,25 +5374,46 @@
         <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6587,7 +6747,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -6616,7 +6776,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>

--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" firstSheet="37" activeTab="41"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" firstSheet="26" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -50,6 +50,9 @@
     <sheet name="periodekas_listtransaksikas" sheetId="57" r:id="rId41"/>
     <sheet name="periodekas_jumlahperiodik" sheetId="58" r:id="rId42"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -3537,8 +3540,8 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4381,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5392,7 +5395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" firstSheet="26" activeTab="30"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -712,6 +712,9 @@
   </si>
   <si>
     <t>jenisTransaksiKas_id</t>
+  </si>
+  <si>
+    <t>ongkosKirimBeli</t>
   </si>
 </sst>
 </file>
@@ -3804,10 +3807,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3816,16 +3819,16 @@
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3842,40 +3845,43 @@
         <v>133</v>
       </c>
       <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>154</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>155</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>161</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -3891,32 +3897,32 @@
       <c r="E2">
         <v>1100</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>37</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2</v>
       </c>
@@ -3932,26 +3938,26 @@
       <c r="E3">
         <v>1600</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>27</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -3967,26 +3973,26 @@
       <c r="E4">
         <v>1000</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>28</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-4</v>
       </c>
@@ -4002,23 +4008,23 @@
       <c r="E5">
         <v>13100</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
@@ -4034,23 +4040,23 @@
       <c r="E6">
         <v>600</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
@@ -4066,23 +4072,23 @@
       <c r="E7">
         <v>900</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-7</v>
       </c>
@@ -4098,23 +4104,23 @@
       <c r="E8">
         <v>200</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-8</v>
       </c>
@@ -4130,23 +4136,23 @@
       <c r="E9">
         <v>500</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-9</v>
       </c>
@@ -4162,23 +4168,23 @@
       <c r="E10">
         <v>400</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-10</v>
       </c>
@@ -4194,23 +4200,23 @@
       <c r="E11">
         <v>1500</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-11</v>
       </c>
@@ -4226,23 +4232,23 @@
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-12</v>
       </c>
@@ -4258,19 +4264,19 @@
       <c r="E13">
         <v>200</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>60</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10</v>
       </c>
-      <c r="J13">
-        <v>-1</v>
-      </c>
       <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
     </row>
@@ -4384,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" firstSheet="39" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -15,50 +15,48 @@
     <sheet name="Sales" sheetId="28" r:id="rId6"/>
     <sheet name="StokProduk" sheetId="3" r:id="rId7"/>
     <sheet name="PeriodeItemStok" sheetId="5" r:id="rId8"/>
-    <sheet name="PeriodeItemStok_listItem" sheetId="4" r:id="rId9"/>
-    <sheet name="BonusPenjualan" sheetId="16" r:id="rId10"/>
-    <sheet name="BonusPenjualan_items" sheetId="17" r:id="rId11"/>
-    <sheet name="PengeluaranBarang" sheetId="18" r:id="rId12"/>
-    <sheet name="PengeluaranBarang_items" sheetId="27" r:id="rId13"/>
-    <sheet name="Konsumen" sheetId="20" r:id="rId14"/>
-    <sheet name="Konsumen_FakturJual" sheetId="31" r:id="rId15"/>
-    <sheet name="Konsumen_listRiwayatPoin" sheetId="38" r:id="rId16"/>
-    <sheet name="Konsumen_hargaTerakhir" sheetId="21" r:id="rId17"/>
-    <sheet name="BilyetGiro" sheetId="30" r:id="rId18"/>
-    <sheet name="KewajibanPembayaran" sheetId="22" r:id="rId19"/>
-    <sheet name="kewajibanpembayaran_items" sheetId="23" r:id="rId20"/>
-    <sheet name="FakturJual" sheetId="25" r:id="rId21"/>
-    <sheet name="PenerimaanBarang" sheetId="41" r:id="rId22"/>
-    <sheet name="PenerimaanBarang_items" sheetId="42" r:id="rId23"/>
-    <sheet name="FakturJual_retur" sheetId="39" r:id="rId24"/>
-    <sheet name="FakturJual_listItemFaktur" sheetId="26" r:id="rId25"/>
-    <sheet name="PencairanPoin" sheetId="32" r:id="rId26"/>
-    <sheet name="PencairanPoin_Items" sheetId="33" r:id="rId27"/>
-    <sheet name="ReturJual" sheetId="34" r:id="rId28"/>
-    <sheet name="itemretur" sheetId="35" r:id="rId29"/>
-    <sheet name="ReturJual_itemRetur" sheetId="36" r:id="rId30"/>
-    <sheet name="klaim" sheetId="43" r:id="rId31"/>
-    <sheet name="itemretur_klaim" sheetId="45" r:id="rId32"/>
-    <sheet name="returjual_fakturs" sheetId="47" r:id="rId33"/>
-    <sheet name="penerimaanservis" sheetId="48" r:id="rId34"/>
-    <sheet name="penerimaanservis_items" sheetId="49" r:id="rId35"/>
-    <sheet name="pesan" sheetId="37" r:id="rId36"/>
-    <sheet name="kategorikas" sheetId="50" r:id="rId37"/>
-    <sheet name="jenistransaksikas" sheetId="52" r:id="rId38"/>
-    <sheet name="kas" sheetId="54" r:id="rId39"/>
-    <sheet name="periodekas" sheetId="55" r:id="rId40"/>
-    <sheet name="periodekas_listtransaksikas" sheetId="57" r:id="rId41"/>
-    <sheet name="periodekas_jumlahperiodik" sheetId="58" r:id="rId42"/>
+    <sheet name="periodeitemstok_itemstok" sheetId="60" r:id="rId9"/>
+    <sheet name="itemstok" sheetId="59" r:id="rId10"/>
+    <sheet name="BonusPenjualan" sheetId="16" r:id="rId11"/>
+    <sheet name="BonusPenjualan_items" sheetId="17" r:id="rId12"/>
+    <sheet name="PengeluaranBarang" sheetId="18" r:id="rId13"/>
+    <sheet name="PengeluaranBarang_items" sheetId="27" r:id="rId14"/>
+    <sheet name="Konsumen" sheetId="20" r:id="rId15"/>
+    <sheet name="Konsumen_FakturJual" sheetId="31" r:id="rId16"/>
+    <sheet name="Konsumen_listRiwayatPoin" sheetId="38" r:id="rId17"/>
+    <sheet name="Konsumen_hargaTerakhir" sheetId="21" r:id="rId18"/>
+    <sheet name="BilyetGiro" sheetId="30" r:id="rId19"/>
+    <sheet name="KewajibanPembayaran" sheetId="22" r:id="rId20"/>
+    <sheet name="kewajibanpembayaran_items" sheetId="23" r:id="rId21"/>
+    <sheet name="FakturJual" sheetId="25" r:id="rId22"/>
+    <sheet name="PenerimaanBarang" sheetId="41" r:id="rId23"/>
+    <sheet name="PenerimaanBarang_items" sheetId="42" r:id="rId24"/>
+    <sheet name="FakturJual_retur" sheetId="39" r:id="rId25"/>
+    <sheet name="FakturJual_listItemFaktur" sheetId="26" r:id="rId26"/>
+    <sheet name="PencairanPoin" sheetId="32" r:id="rId27"/>
+    <sheet name="PencairanPoin_Items" sheetId="33" r:id="rId28"/>
+    <sheet name="ReturJual" sheetId="34" r:id="rId29"/>
+    <sheet name="itemretur" sheetId="35" r:id="rId30"/>
+    <sheet name="ReturJual_itemRetur" sheetId="36" r:id="rId31"/>
+    <sheet name="klaim" sheetId="43" r:id="rId32"/>
+    <sheet name="itemretur_klaim" sheetId="45" r:id="rId33"/>
+    <sheet name="returjual_fakturs" sheetId="47" r:id="rId34"/>
+    <sheet name="penerimaanservis" sheetId="48" r:id="rId35"/>
+    <sheet name="penerimaanservis_items" sheetId="49" r:id="rId36"/>
+    <sheet name="pesan" sheetId="37" r:id="rId37"/>
+    <sheet name="kategorikas" sheetId="50" r:id="rId38"/>
+    <sheet name="jenistransaksikas" sheetId="52" r:id="rId39"/>
+    <sheet name="kas" sheetId="54" r:id="rId40"/>
+    <sheet name="periodekas" sheetId="55" r:id="rId41"/>
+    <sheet name="periodekas_transaksikas" sheetId="61" r:id="rId42"/>
+    <sheet name="transaksikas" sheetId="62" r:id="rId43"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -711,10 +709,13 @@
     <t>Pendapatan Tukar</t>
   </si>
   <si>
-    <t>jenisTransaksiKas_id</t>
-  </si>
-  <si>
     <t>ongkosKirimBeli</t>
+  </si>
+  <si>
+    <t>listItem_id</t>
+  </si>
+  <si>
+    <t>listTransaksiKas_id</t>
   </si>
 </sst>
 </file>
@@ -769,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,7 +778,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,6 +1344,400 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>41628</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>41649</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>41678</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>41649</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41651</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41640</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>41672</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41640</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>41669</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>41672</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41685</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>41685</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-18</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>41692</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>41646</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>40179</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>40188</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>40198</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1393,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D1"/>
@@ -1430,7 +1824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:L8"/>
@@ -1693,7 +2087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D8"/>
@@ -1828,7 +2222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:L6"/>
@@ -2044,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B7"/>
@@ -2121,7 +2515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E1"/>
@@ -2161,7 +2555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:C5"/>
@@ -2239,7 +2633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:I3"/>
@@ -2333,116 +2727,6 @@
       </c>
       <c r="I3" t="s">
         <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>41749</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41749</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>41749</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>41967</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>-5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>41967</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -2549,6 +2833,116 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41749</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41749</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41749</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41967</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41967</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2638,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:R10"/>
@@ -3054,7 +3448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J1"/>
@@ -3113,7 +3507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:D1"/>
@@ -3150,7 +3544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:C1"/>
@@ -3181,7 +3575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H13"/>
@@ -3438,7 +3832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:L1"/>
@@ -3503,7 +3897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:D1"/>
@@ -3538,7 +3932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:P3"/>
@@ -3689,127 +4083,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet29"/>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>-5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>-6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3845,7 +4124,7 @@
         <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -4288,6 +4567,121 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet29"/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:C7"/>
@@ -4386,7 +4780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -4571,7 +4965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -4638,7 +5032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -4668,7 +5062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -4715,7 +5109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -4750,7 +5144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:L1"/>
@@ -4807,7 +5201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -4971,7 +5365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -5055,106 +5449,6 @@
       </c>
       <c r="H3">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="1">
-        <v>41985</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="1">
-        <v>41985</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5275,6 +5569,106 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41985</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41985</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5342,87 +5736,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>206</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -6087,7 +6496,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6753,404 +7162,273 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" s="3">
-        <v>41628</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" s="3">
-        <v>41649</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-4</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="3">
-        <v>41678</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
       <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" s="3">
-        <v>41649</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-6</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="3">
-        <v>41651</v>
-      </c>
-      <c r="F8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-7</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-8</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-9</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12" s="3">
-        <v>41640</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-11</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="3">
-        <v>41672</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-12</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="3">
-        <v>41640</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" s="3">
-        <v>41669</v>
-      </c>
-      <c r="F15">
+        <v>-14</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-13</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="3">
-        <v>41672</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-14</v>
       </c>
       <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" s="3">
-        <v>41685</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-15</v>
       </c>
       <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="3">
-        <v>41685</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-16</v>
       </c>
       <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="3">
-        <v>41692</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-17</v>
       </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" s="3">
-        <v>41646</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-18</v>
       </c>
       <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" s="1">
-        <v>40179</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-18</v>
       </c>
       <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="1">
-        <v>40188</v>
-      </c>
-      <c r="F22">
+        <v>-21</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-18</v>
       </c>
       <c r="B23">
+        <v>-22</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23"/>
-      <c r="E23" s="1">
-        <v>40198</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/integration/project/data_retur_jual.xlsx
+++ b/test/integration/project/data_retur_jual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" firstSheet="39" activeTab="42"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="7395" tabRatio="788" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -51,12 +51,15 @@
     <sheet name="periodekas_transaksikas" sheetId="61" r:id="rId42"/>
     <sheet name="transaksikas" sheetId="62" r:id="rId43"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -716,6 +719,9 @@
   </si>
   <si>
     <t>listTransaksiKas_id</t>
+  </si>
+  <si>
+    <t>poinBerlaku</t>
   </si>
 </sst>
 </file>
@@ -3035,10 +3041,10 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3061,9 +3067,10 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -3118,8 +3125,11 @@
       <c r="R1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -3148,8 +3158,11 @@
       <c r="R2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -3181,8 +3194,11 @@
       <c r="R3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -3222,8 +3238,11 @@
       <c r="R4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3254,8 +3273,11 @@
       <c r="R5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -3289,8 +3311,11 @@
       <c r="R6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3327,8 +3352,11 @@
       <c r="R7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -3365,8 +3393,11 @@
       <c r="R8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3403,8 +3434,11 @@
       <c r="R9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -3440,6 +3474,9 @@
       </c>
       <c r="R10" t="b">
         <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5772,7 +5809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
